--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1363.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1363.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.19427780211926</v>
+        <v>0.917663037776947</v>
       </c>
       <c r="B1">
-        <v>2.593169911796017</v>
+        <v>2.844558000564575</v>
       </c>
       <c r="C1">
-        <v>3.823048323135884</v>
+        <v>8.741476058959961</v>
       </c>
       <c r="D1">
-        <v>2.779500745784015</v>
+        <v>2.027060270309448</v>
       </c>
       <c r="E1">
-        <v>1.140389735115885</v>
+        <v>1.143010377883911</v>
       </c>
     </row>
   </sheetData>
